--- a/individual_results/avey/456.xlsx
+++ b/individual_results/avey/456.xlsx
@@ -628,7 +628,7 @@
         <v>0.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -637,7 +637,7 @@
         <v>0.5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>0.5</v>
       </c>
       <c r="U3" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
         <v>0.5</v>
       </c>
       <c r="W3" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -701,14 +701,14 @@
         <v>0.2857142857142858</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2857142857142858</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -725,7 +725,7 @@
         <v>0.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
@@ -733,13 +733,13 @@
         <v>0.5</v>
       </c>
       <c r="U4" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V4" t="n">
         <v>0.4</v>
       </c>
       <c r="W4" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -752,14 +752,14 @@
         <v>0.3846153846153846</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
         <v>0.4166666666666667</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
@@ -776,7 +776,7 @@
         <v>0.625</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.625</v>
       </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
@@ -784,13 +784,13 @@
         <v>0.5</v>
       </c>
       <c r="U5" t="n">
-        <v>0.5</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="V5" t="n">
         <v>0.4545454545454545</v>
       </c>
       <c r="W5" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="6">
@@ -1146,21 +1146,21 @@
         <v>2.5</v>
       </c>
       <c r="C11" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
         <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
         <v>1.5</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
         <v>2</v>
@@ -1170,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
@@ -1180,25 +1180,25 @@
         <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R11" t="n">
         <v>0.5</v>
       </c>
       <c r="S11" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T11" t="n">
         <v>1</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
         <v>1.5</v>
       </c>
       <c r="W11" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/individual_results/avey/456.xlsx
+++ b/individual_results/avey/456.xlsx
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -649,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -713,9 +713,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
@@ -764,9 +762,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>0.4166666666666667</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
@@ -803,7 +799,7 @@
         <v>0.8262346571285599</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8262346571285599</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -812,7 +808,7 @@
         <v>0.8262346571285599</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8262346571285599</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -824,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8262346571285599</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -845,7 +841,7 @@
         <v>0.58688267143572</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.8262346571285599</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -857,13 +853,13 @@
         <v>0.8262346571285599</v>
       </c>
       <c r="U6" t="n">
-        <v>0.8262346571285599</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0.41311732856428</v>
       </c>
       <c r="W6" t="n">
-        <v>0.41311732856428</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -897,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
@@ -970,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -1043,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -1107,9 +1103,7 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
